--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>["来源1","来源2","来源6"]</t>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1002"}</t>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1003"}</t>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1004"}</t>
   </si>
 </sst>
 </file>
@@ -571,18 +592,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="27.25" customWidth="1"/>
+    <col min="6" max="6" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +617,11 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -610,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -626,8 +651,11 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -640,8 +668,11 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -654,8 +685,11 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -668,8 +702,11 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>1004</v>
       </c>
@@ -681,6 +718,9 @@
       </c>
       <c r="E7" t="s">
         <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId1"/>
     <sheet name="hero" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="备注" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,72 +58,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>examp1002</t>
+  </si>
+  <si>
+    <t>examp1003</t>
+  </si>
+  <si>
+    <t>examp1004</t>
+  </si>
+  <si>
+    <t>[[1,700],[2,800],[3,900]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,700],[2,800],[3,901]]</t>
+  </si>
+  <si>
+    <t>[[1,700],[2,800],[3,902]]</t>
+  </si>
+  <si>
+    <t>[[1,700],[2,800],[3,903]]</t>
+  </si>
+  <si>
+    <t>["来源1","来源2","来源4"]</t>
+  </si>
+  <si>
+    <t>["来源1","来源2","来源5"]</t>
+  </si>
+  <si>
+    <t>["来源1","来源2","来源6"]</t>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1002"}</t>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1003"}</t>
+  </si>
+  <si>
+    <t>{"face":["face10010","face10011"],"arm":"arm1004"}</t>
+  </si>
+  <si>
+    <t>荒古遗尘光剑</t>
+  </si>
+  <si>
+    <t>巴鲁姆克之剑</t>
+  </si>
+  <si>
+    <t>*Lv84~91深渊地下城怪物掉落。*攻坚队完成安徒恩团队模式的[消灭安徒恩]任务时，获得的奖励。</t>
+  </si>
+  <si>
+    <t>雷剑 - 苦轮</t>
+  </si>
+  <si>
+    <t>王之悲鸣</t>
+  </si>
+  <si>
+    <t>*Lv79~86深渊地下城怪物掉落*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。</t>
+  </si>
+  <si>
+    <t>歃血之怨</t>
+  </si>
+  <si>
+    <t>*Lv74~81深渊地下城怪物掉落*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。</t>
+  </si>
+  <si>
+    <t>冰龙之愤怒</t>
+  </si>
+  <si>
+    <t>*Lv69~76深渊地下城怪物掉落*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。*歌兰蒂斯·格拉西亚 出售 (宇宙灵魂×330)</t>
+  </si>
+  <si>
+    <t>火焰刃 - 布兰兹</t>
+  </si>
+  <si>
+    <t>*Lv64~71深渊地下城怪物掉落*在NPC沉默之克雷娅的物品店购买</t>
+  </si>
+  <si>
+    <t>血之挽歌</t>
+  </si>
+  <si>
+    <t>无轩之散魄</t>
+  </si>
+  <si>
+    <t>*Lv59~66深渊地下城怪物掉落*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。*歌兰蒂斯·格拉西亚 出售 (宇宙灵魂×230)</t>
+  </si>
+  <si>
+    <t>天脊骨狱息</t>
+  </si>
+  <si>
+    <t>千年之光</t>
+  </si>
+  <si>
+    <t>武动之魂光剑</t>
+  </si>
+  <si>
+    <t>*决斗场-爱莎&amp;鹰吉&amp;风铃 出售*设计图（爱莎&amp;鹰吉&amp;风铃 出售）</t>
+  </si>
+  <si>
+    <t>邪影污灵剑</t>
+  </si>
+  <si>
+    <t>*公爵尤里斯 掉落(地下城: 痛苦之村列瑟芬 5图)*设计图(地下城 痛苦之村列瑟芬 登场的NPC加百利 出售)</t>
+  </si>
+  <si>
+    <t>炽光之剑</t>
+  </si>
+  <si>
+    <t>*光之沃德咯斯 掉落(地下城: 王的遗迹 5图)*设计图(地下城 王的遗迹 登场的NPC加百利 出售)</t>
+  </si>
+  <si>
+    <t>西部无法者的光剑</t>
+  </si>
+  <si>
+    <t>*昨日之巴斯顿 掉落 (在远古地下城里出没。）*从NPC鲁特的物品店出售的[西部无法者武器礼盒]中获得*船长鲁特 出售 (气吞山河图×100)</t>
+  </si>
+  <si>
+    <t>格拉西亚家族遗物 - 光剑</t>
+  </si>
+  <si>
+    <t>*昨日之巴斯顿 掉落 (在远古地下城里出没。）*从NPC鲁特的物品店出售的[格拉西亚家族遗物武器礼盒]中获得*格拉西亚家族遗物任务奖励 (地下城:诺伊佩拉 , NPC: 歌兰蒂斯·格拉西亚)</t>
+  </si>
+  <si>
+    <t>浸夜之余晖</t>
+  </si>
+  <si>
+    <t>*巨斧克洛 掉落(地下城: 能量阻截战 7图)*设计图(安徒恩 地下城 登场的NPC加百利 出售)</t>
+  </si>
+  <si>
+    <t>真·灵斗者专属的光剑</t>
+  </si>
+  <si>
+    <t>邪念之息 - 暗涌</t>
+  </si>
+  <si>
+    <t>*巨灵布鲁 掉落(地下城: 魂：幽灵列车 5图)*设计图(地下城 魂：幽灵列车 登场的NPC加百利 出售)</t>
+  </si>
+  <si>
+    <t>释魂之真灵光剑</t>
+  </si>
+  <si>
+    <t>*设计图 (时空之门地区 - 吟游诗人艾丽丝 出售)</t>
+  </si>
+  <si>
+    <t>镇魂之封灵光剑</t>
+  </si>
+  <si>
+    <t>*时空之门地区 - 吟游诗人艾丽丝 出售 (镇魂之石×100)*购买镇魂武器礼盒(低级镇魂之石×140)</t>
+  </si>
+  <si>
+    <t>灵斗者专属的光剑</t>
+  </si>
+  <si>
+    <t>灼魂之剑</t>
+  </si>
+  <si>
+    <t>*虚空之弗曼 掉落(地下城: 格兰迪发电站)*在NPC佩拉·维恩的物品店购买(燃烧的陨石×555)</t>
+  </si>
+  <si>
+    <t>骷髅骑士之魂</t>
+  </si>
+  <si>
+    <t>*骷髅骑士 掉落(地下城: 瘟疫之源)*在NPC西岚的物品店购买(银色陨石×465)</t>
+  </si>
+  <si>
+    <t>纵火犯本汀克的喷火器</t>
+  </si>
+  <si>
+    <t>*纵火犯本汀克 掉落(地下城: 根特外围)*在NPC泽丁·施奈德的物品店购买 (黑色陨石×375)</t>
+  </si>
+  <si>
+    <t>精铸的翼影之光</t>
+  </si>
+  <si>
+    <t>*领主-光之城主赛格哈特 掉落(地下城: 极光幻境)*在NPC敏泰的物品店购买(阿拉德陨石×285)</t>
+  </si>
+  <si>
+    <t>巴塔路西斯的爆炎剑</t>
+  </si>
+  <si>
+    <t>*爆炎剑.巴塔路西斯&amp;爆炎师.巴塔路西斯&amp;爆炎拳.巴塔路西斯 掉落(地下城: 远古墓穴深处)*在NPC克伦特的物品店购买(阿拉德陨石 ×150)</t>
+  </si>
+  <si>
+    <t>*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。
+*在NPC乌恩的物品店购买 (安徒恩的灵魂碎片×20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>examp1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>examp1002</t>
-  </si>
-  <si>
-    <t>examp1003</t>
-  </si>
-  <si>
-    <t>examp1004</t>
-  </si>
-  <si>
-    <t>[[1,700],[2,800],[3,900]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,700],[2,800],[3,901]]</t>
-  </si>
-  <si>
-    <t>[[1,700],[2,800],[3,902]]</t>
-  </si>
-  <si>
-    <t>[[1,700],[2,800],[3,903]]</t>
-  </si>
-  <si>
-    <t>["来源1","来源2","来源3"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["来源1","来源2","来源4"]</t>
-  </si>
-  <si>
-    <t>["来源1","来源2","来源5"]</t>
-  </si>
-  <si>
-    <t>["来源1","来源2","来源6"]</t>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"face":["face10010","face10011"],"arm":"arm1001"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"face":["face10010","face10011"],"arm":"arm1002"}</t>
-  </si>
-  <si>
-    <t>{"face":["face10010","face10011"],"arm":"arm1003"}</t>
-  </si>
-  <si>
-    <t>{"face":["face10010","face10011"],"arm":"arm1004"}</t>
+    <t>*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。\n*在NPC乌恩的物品店购买 (安徒恩的灵魂碎片×20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -166,8 +332,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,34 +641,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -504,13 +679,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -518,69 +696,400 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1001</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1002</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1003</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>1004</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>1010</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>1011</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>1012</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1014</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1015</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1016</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>1017</v>
+      </c>
+      <c r="C20">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>1018</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>1019</v>
+      </c>
+      <c r="C22">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>1020</v>
+      </c>
+      <c r="C23">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>1021</v>
+      </c>
+      <c r="C24">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>1022</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>1023</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>1024</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>1025</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>1026</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>1027</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -595,11 +1104,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="5" width="27.25" customWidth="1"/>
     <col min="6" max="6" width="52.375" customWidth="1"/>
   </cols>
@@ -615,10 +1125,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -649,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -660,16 +1170,16 @@
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -677,16 +1187,16 @@
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -694,16 +1204,16 @@
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -711,16 +1221,16 @@
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -731,13 +1241,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId1"/>
     <sheet name="hero" sheetId="2" r:id="rId2"/>
-    <sheet name="备注" sheetId="3" r:id="rId3"/>
+    <sheet name="activity" sheetId="4" r:id="rId3"/>
+    <sheet name="备注" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +290,158 @@
   </si>
   <si>
     <t>*攻坚队完成安徒恩团队模式的[讨伐安徒恩]任务时，获得的奖励。\n*在NPC乌恩的物品店购买 (安徒恩的灵魂碎片×20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备增加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备来源描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,20],[3006,99],[7003,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里可以随便放一些备用的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者是验收要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外显数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +464,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -340,6 +511,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -641,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -654,106 +831,109 @@
     <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="C4">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C5">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C6">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>30</v>
@@ -761,334 +941,351 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C12">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C14">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C16">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C17">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C18">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C19">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C20">
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C21">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C22">
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C23">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C24">
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C26">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C27">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30">
+        <v>1026</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31">
         <v>1027</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1101,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,122 +1311,142 @@
     <col min="6" max="6" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8">
         <v>1004</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1241,19 +1458,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="7"/>
+    <col min="5" max="5" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>85</v>
       </c>
@@ -1264,7 +1599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>85</v>
       </c>
@@ -1275,7 +1610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>85</v>
       </c>
@@ -1286,7 +1621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>80</v>
       </c>
@@ -1296,8 +1631,11 @@
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E4" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>75</v>
       </c>
@@ -1307,8 +1645,9 @@
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1318,8 +1657,9 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>65</v>
       </c>
@@ -1329,16 +1669,18 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>60</v>
       </c>
@@ -1348,24 +1690,29 @@
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>85</v>
       </c>
@@ -1375,8 +1722,11 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E12" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>85</v>
       </c>
@@ -1387,7 +1737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>85</v>
       </c>
@@ -1398,7 +1748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>85</v>
       </c>
@@ -1409,7 +1759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>85</v>
       </c>

--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="92" windowWidth="14799" windowHeight="8003" activeTab="1" tabRatio="600"/>
+    <workbookView xWindow="195" yWindow="61" windowWidth="14769" windowHeight="7972" activeTab="1" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId2"/>
@@ -254,7 +254,7 @@
     <t>examp1001</t>
   </si>
   <si>
-    <t>{{res = 1,id = 10001,count = 1}，{res = 1,id = 10001,count = 1}}</t>
+    <t>{{res = 1,id = 10001,count = 1},{res = 1,id = 10001,count = 1}}</t>
   </si>
   <si>
     <t>["来源1","来源2","来源4"]</t>
@@ -275,7 +275,7 @@
     <t>examp1003</t>
   </si>
   <si>
-    <t>{ 1,2,3,4,5,6,7,8,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9}</t>
+    <t>{1,2,3,4,5,6,7,8,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,9,1}</t>
   </si>
   <si>
     <t>["来源1","来源2","来源5"]</t>
@@ -358,15 +358,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="@"/>
     <numFmt numFmtId="177" formatCode="0%"/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="19">
+  <fonts count="35" x14ac:knownFonts="35">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -478,7 +479,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
       <sz val="11.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -487,8 +588,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,13 +799,321 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0504D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA7BFDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -830,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -840,10 +1254,8 @@
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyAlignment="1"/>
@@ -890,10 +1302,58 @@
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="181" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="36" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="37" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="38" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="39" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="13" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="38" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="40" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="17" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="0" borderId="18" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="19" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="20" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="64" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="65" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="3" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -922,153 +1382,153 @@
     <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="58">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
         <v>1001.0</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="1">
         <v>85.0</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="58">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="58">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
         <v>1002.0</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="1">
         <v>85.0</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="58">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="58">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
         <v>1003.0</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="1">
         <v>85.0</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="58">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
         <v>1004.0</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="1">
         <v>80.0</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s" s="58">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
         <v>1005.0</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="1">
         <v>75.0</v>
       </c>
       <c r="D9" t="s">
@@ -1078,11 +1538,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
         <v>1006.0</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="1">
         <v>70.0</v>
       </c>
       <c r="D10" t="s">
@@ -1092,11 +1552,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
         <v>1007.0</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="1">
         <v>65.0</v>
       </c>
       <c r="D11" t="s">
@@ -1106,11 +1566,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
         <v>1008.0</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="1">
         <v>60.0</v>
       </c>
       <c r="D12" t="s">
@@ -1118,11 +1578,11 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
         <v>1009.0</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="1">
         <v>60.0</v>
       </c>
       <c r="D13" t="s">
@@ -1132,11 +1592,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="58">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
         <v>1010.0</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="1">
         <v>55.0</v>
       </c>
       <c r="D14" t="s">
@@ -1144,11 +1604,11 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="58">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
         <v>1011.0</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="1">
         <v>55.0</v>
       </c>
       <c r="D15" t="s">
@@ -1156,11 +1616,11 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="58">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
         <v>1012.0</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="1">
         <v>85.0</v>
       </c>
       <c r="D16" t="s">
@@ -1170,11 +1630,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="58">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
         <v>1013.0</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="1">
         <v>85.0</v>
       </c>
       <c r="D17" t="s">
@@ -1184,11 +1644,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="58">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
         <v>1014.0</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="1">
         <v>85.0</v>
       </c>
       <c r="D18" t="s">
@@ -1198,11 +1658,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="58">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
         <v>1015.0</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="1">
         <v>85.0</v>
       </c>
       <c r="D19" t="s">
@@ -1212,11 +1672,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="58">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
         <v>1016.0</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="1">
         <v>85.0</v>
       </c>
       <c r="D20" t="s">
@@ -1226,11 +1686,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="58">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
         <v>1017.0</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="1">
         <v>85.0</v>
       </c>
       <c r="D21" t="s">
@@ -1240,11 +1700,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="58">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
         <v>1018.0</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="1">
         <v>85.0</v>
       </c>
       <c r="D22" t="s">
@@ -1254,11 +1714,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="58">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
         <v>1019.0</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="1">
         <v>85.0</v>
       </c>
       <c r="D23" t="s">
@@ -1268,11 +1728,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="58">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
         <v>1020.0</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="1">
         <v>85.0</v>
       </c>
       <c r="D24" t="s">
@@ -1282,11 +1742,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="58">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1">
         <v>1021.0</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="1">
         <v>85.0</v>
       </c>
       <c r="D25" t="s">
@@ -1296,11 +1756,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="58">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
         <v>1022.0</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="1">
         <v>80.0</v>
       </c>
       <c r="D26" t="s">
@@ -1310,11 +1770,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="58">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
         <v>1023.0</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="1">
         <v>80.0</v>
       </c>
       <c r="D27" t="s">
@@ -1324,11 +1784,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="58">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
         <v>1024.0</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="1">
         <v>70.0</v>
       </c>
       <c r="D28" t="s">
@@ -1338,11 +1798,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="58">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
         <v>1025.0</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="1">
         <v>60.0</v>
       </c>
       <c r="D29" t="s">
@@ -1352,11 +1812,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="58">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
         <v>1026.0</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="1">
         <v>50.0</v>
       </c>
       <c r="D30" t="s">
@@ -1366,11 +1826,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="58">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1">
         <v>1027.0</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="1">
         <v>35.0</v>
       </c>
       <c r="D31" t="s">
@@ -1395,7 +1855,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1406,171 +1866,171 @@
     <col min="7" max="7" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="58">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="58">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="58">
+      <c r="D4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="58">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
         <v>1001.0</v>
       </c>
-      <c r="C5" t="s" s="58">
+      <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s" s="58">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s" s="58">
+      <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="58">
+      <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="58">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
         <v>1002.0</v>
       </c>
-      <c r="C6" t="s" s="58">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s" s="58">
+      <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s" s="58">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s" s="58">
+      <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="58">
+      <c r="G6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="58">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
         <v>1003.0</v>
       </c>
-      <c r="C7" t="s" s="58">
+      <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s" s="58">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="58">
+      <c r="F7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s" s="58">
+      <c r="G7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
         <v>1004.0</v>
       </c>
-      <c r="C8" t="s" s="58">
+      <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s" s="58">
+      <c r="D8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s" s="58">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s" s="58">
+      <c r="F8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s" s="58">
+      <c r="G8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" t="s" s="58">
+      <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1594,104 +2054,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.0" style="7"/>
-    <col min="3" max="4" width="9.0"/>
+    <col min="1" max="4" width="9.0" style="6"/>
     <col min="5" max="5" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="13.499794" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="58">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="58">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="1">
         <v>90.0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="58">
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s" s="58">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="1">
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="58">
+      <c r="C4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s" s="58">
+      <c r="D4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="58">
+      <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" t="s" s="58">
+      <c r="D5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="58">
+      <c r="C6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" t="s" s="58">
+      <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E6" t="s" s="58">
+      <c r="E6" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1722,8 +2181,8 @@
     <col min="5" max="5" width="28.0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
         <v>85.0</v>
       </c>
       <c r="B1" t="s">
@@ -1733,8 +2192,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>85.0</v>
       </c>
       <c r="B2" t="s">
@@ -1744,8 +2203,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>85.0</v>
       </c>
       <c r="B3" t="s">
@@ -1755,8 +2214,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>80.0</v>
       </c>
       <c r="B4" t="s">
@@ -1765,12 +2224,12 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>75.0</v>
       </c>
       <c r="B5" t="s">
@@ -1779,10 +2238,10 @@
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>70.0</v>
       </c>
       <c r="B6" t="s">
@@ -1791,10 +2250,10 @@
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="58">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>65.0</v>
       </c>
       <c r="B7" t="s">
@@ -1803,19 +2262,19 @@
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="58">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>60.0</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>60.0</v>
       </c>
       <c r="B9" t="s">
@@ -1824,30 +2283,30 @@
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>55.0</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>55.0</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>85.0</v>
       </c>
       <c r="B12" t="s">
@@ -1856,12 +2315,12 @@
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>85.0</v>
       </c>
       <c r="B13" t="s">
@@ -1871,8 +2330,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>85.0</v>
       </c>
       <c r="B14" t="s">
@@ -1882,8 +2341,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="58">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>85.0</v>
       </c>
       <c r="B15" t="s">
@@ -1893,8 +2352,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58">
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>85.0</v>
       </c>
       <c r="B16" t="s">
@@ -1904,8 +2363,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58">
+    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>85.0</v>
       </c>
       <c r="B17" t="s">
@@ -1915,8 +2374,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58">
+    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>85.0</v>
       </c>
       <c r="B18" t="s">
@@ -1926,8 +2385,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58">
+    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>85.0</v>
       </c>
       <c r="B19" t="s">
@@ -1937,8 +2396,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>85.0</v>
       </c>
       <c r="B20" t="s">
@@ -1948,8 +2407,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="58">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>85.0</v>
       </c>
       <c r="B21" t="s">
@@ -1959,8 +2418,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58">
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>80.0</v>
       </c>
       <c r="B22" t="s">
@@ -1970,8 +2429,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="58">
+    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>80.0</v>
       </c>
       <c r="B23" t="s">
@@ -1981,8 +2440,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="58">
+    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>70.0</v>
       </c>
       <c r="B24" t="s">
@@ -1992,8 +2451,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58">
+    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>60.0</v>
       </c>
       <c r="B25" t="s">
@@ -2003,8 +2462,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58">
+    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>50.0</v>
       </c>
       <c r="B26" t="s">
@@ -2014,8 +2473,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="58">
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>35.0</v>
       </c>
       <c r="B27" t="s">
